--- a/DCmotor/motorTestCases.xlsx
+++ b/DCmotor/motorTestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Project Name:</t>
   </si>
@@ -135,24 +135,6 @@
     <t>RPS = aaa</t>
   </si>
   <si>
-    <t>setInput(-50)</t>
-  </si>
-  <si>
-    <t>setInput(-1)</t>
-  </si>
-  <si>
-    <t>setInput(75)</t>
-  </si>
-  <si>
-    <t>setInput(0)</t>
-  </si>
-  <si>
-    <t>setInput(141)</t>
-  </si>
-  <si>
-    <t>setInput(200)</t>
-  </si>
-  <si>
     <t>Call function applyDuty() so it enters its loop of reading inputs and sending it to the stub. Then call setInput(input) in motorInput class.</t>
   </si>
   <si>
@@ -174,28 +156,37 @@
     <t>In motorInput class, set the input value to a value larger than max.</t>
   </si>
   <si>
-    <t>stubPWM print True</t>
-  </si>
-  <si>
-    <t>stubPWM print True. (comparison of duty passed and expected duty from RPS input)</t>
-  </si>
-  <si>
     <t>Status (pass/fail)</t>
   </si>
   <si>
     <t>Input RPS to userRPStoDuty and compare the result with expected duty</t>
   </si>
   <si>
-    <t>return 0</t>
-  </si>
-  <si>
-    <t>exception</t>
-  </si>
-  <si>
-    <t>return 100</t>
-  </si>
-  <si>
-    <t>return 35.46</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>NameError Exception</t>
+  </si>
+  <si>
+    <t>Call function applyDuty(inRPS, stubInst). Where "inRPS" and "stubInst" are parameters added to the function for testing purposes. inRPS is the revolutions per second and stubInst is the instance the of the stub class.</t>
+  </si>
+  <si>
+    <t>applyDuty(-50, stubInst)</t>
+  </si>
+  <si>
+    <t>applyDuty(0, stubInst)</t>
+  </si>
+  <si>
+    <t>applyDuty(-1, stubInst)</t>
+  </si>
+  <si>
+    <t>applyDuty(75, stubInst)</t>
+  </si>
+  <si>
+    <t>applyDuty(141, stubInst)</t>
+  </si>
+  <si>
+    <t>applyDuty(200, stubInst)</t>
   </si>
 </sst>
 </file>
@@ -246,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,18 +553,18 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,6 +592,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="4">
+        <v>43054</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -636,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -653,13 +648,17 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -675,13 +674,17 @@
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -697,13 +700,17 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>35.46</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35.46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -719,13 +726,17 @@
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -741,13 +752,17 @@
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -763,13 +778,17 @@
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -781,7 +800,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -789,19 +808,23 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -811,19 +834,23 @@
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -833,19 +860,23 @@
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -855,19 +886,23 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F17" s="2">
+        <v>53.19</v>
+      </c>
+      <c r="G17" s="2">
+        <v>53.19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -877,19 +912,23 @@
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -899,19 +938,23 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>

--- a/DCmotor/motorTestCases.xlsx
+++ b/DCmotor/motorTestCases.xlsx
@@ -553,8 +553,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DCmotor/motorTestCases.xlsx
+++ b/DCmotor/motorTestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Project Name:</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>RPS = aaa</t>
-  </si>
-  <si>
-    <t>Call function applyDuty() so it enters its loop of reading inputs and sending it to the stub. Then call setInput(input) in motorInput class.</t>
   </si>
   <si>
     <t>In motorInput class, set the input value to a negative value.</t>
@@ -554,7 +551,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -648,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -657,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -674,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -683,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -700,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2">
         <v>35.46</v>
@@ -709,7 +706,7 @@
         <v>35.46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -726,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
@@ -735,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -752,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
@@ -761,7 +758,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -778,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,13 +805,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -823,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -834,13 +831,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -849,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -860,13 +857,13 @@
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -875,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -886,13 +883,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2">
         <v>53.19</v>
@@ -901,10 +898,10 @@
         <v>53.19</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -912,13 +909,13 @@
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -927,10 +924,10 @@
         <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -938,13 +935,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2">
         <v>100</v>
@@ -953,7 +950,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
